--- a/docs/PTA3_ADDC_10_3/PTA3_ADDC_10_3_01.08.24_output.xlsx
+++ b/docs/PTA3_ADDC_10_3/PTA3_ADDC_10_3_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,459 +505,497 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731701183.2481315</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731701184.3796525</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701183.2481315.png</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731701184.3796525.png</t>
-        </is>
-      </c>
+          <t>1731877143.6843765</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>3036.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3036.45</v>
+          <t>./test_images/SBER1731877143.6843765.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>-0.25</v>
+        <v>288.85</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.01</v>
+        <v>287.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731701184.7132814</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1731701184.8249822</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701184.7132814.png</t>
+          <t>1731877151.4582233</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701184.8249822.png</t>
+          <t>1731877153.0775483</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/GAZP1731877151.4582233.png</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>3034.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3033.35</v>
+          <t>./test_images/GAZP1731877153.0775483.png</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>-1.550000000000182</v>
+        <v>133.83</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.05</v>
+        <v>133.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.4300000000000068</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1731701185.7275693</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1731701186.429719</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701185.7275693.png</t>
+          <t>1731877157.1042812</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701186.429719.png</t>
+          <t>1731877158.1562283</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731877157.1042812.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731877158.1562283.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>3028.25</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3031.1</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>2.849999999999909</v>
+        <v>132.91</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09</v>
+        <v>133.59</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6800000000000068</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1731701187.3384142</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1731701187.9922874</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701187.3384142.png</t>
+          <t>1731877160.371565</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701187.9922874.png</t>
+          <t>1731877163.1412382</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731877160.371565.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731877163.1412382.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>3026</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3027.9</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>1.900000000000091</v>
+        <v>132.74</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06</v>
+        <v>133.29</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5499999999999829</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1731701188.0332086</t>
-        </is>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1731701189.233425</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701188.0332086.png</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731701189.233425.png</t>
-        </is>
-      </c>
+          <t>1731877166.8552167</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>3030.65</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3031.1</v>
+          <t>./test_images/GAZP1731877166.8552167.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>-0.4499999999998181</v>
+        <v>132.61</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01</v>
+        <v>132.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.5100000000000193</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1731701189.4059987</t>
-        </is>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1731701190.0922165</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701189.4059987.png</t>
+          <t>1731877174.5633507</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701190.0922165.png</t>
+          <t>1731877174.8494356</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731877174.5633507.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731877174.8494356.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>3029</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3026.9</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>-2.099999999999909</v>
+        <v>6741</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.06999999999999999</v>
+        <v>6757</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1731701190.8488076</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1731701191.3096054</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701190.8488076.png</t>
+          <t>1731877175.9197993</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701191.3096054.png</t>
+          <t>1731877176.3948507</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/LKOH1731877175.9197993.png</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3017.25</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3023.45</v>
+          <t>./test_images/LKOH1731877176.3948507.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>6.199999999999818</v>
+        <v>6770</v>
       </c>
       <c r="L9" t="n">
-        <v>0.21</v>
+        <v>6755</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1731701191.6347358</t>
-        </is>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1731701192.4065368</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701191.6347358.png</t>
+          <t>1731877176.5108364</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701192.4065368.png</t>
+          <t>1731877176.9661202</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731877176.5108364.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731877176.9661202.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>3015.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3019.9</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>6740</v>
       </c>
       <c r="L10" t="n">
+        <v>6749</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -955,408 +1003,5066 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1731701193.4410489</t>
-        </is>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1731701194.962042</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701193.4410489.png</t>
+          <t>1731877176.9799225</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701194.962042.png</t>
+          <t>1731877177.2181637</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731877176.9799225.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731877177.2181637.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>3022.15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3024.65</v>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v>-2.5</v>
+        <v>6749</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.08</v>
+        <v>6754</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1731701195.8182573</t>
-        </is>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1731701198.5625148</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701195.8182573.png</t>
+          <t>1731877183.1091206</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701198.5625148.png</t>
+          <t>1731877188.670145</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731877183.1091206.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731877188.670145.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>3019.95</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3005.75</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K12" t="n">
-        <v>-14.19999999999982</v>
+        <v>6720</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.47</v>
+        <v>6717.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1731701198.6512797</t>
-        </is>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1731701199.150915</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701198.6512797.png</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731701199.150915.png</t>
-        </is>
-      </c>
+          <t>1731877195.2000947</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>3006.35</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3006.4</v>
+          <t>./test_images/LKOH1731877195.2000947.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K13" t="n">
-        <v>-0.0500000000001819</v>
+        <v>6703.5</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>6687</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1731701199.1908083</t>
-        </is>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1731701200.222081</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701199.1908083.png</t>
+          <t>1731877200.2154706</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701200.222081.png</t>
+          <t>1731877202.1111424</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>./test_images/ROSN1731877200.2154706.png</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>3004.3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3001.95</v>
+          <t>./test_images/ROSN1731877202.1111424.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K14" t="n">
-        <v>-2.350000000000364</v>
+        <v>516.65</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.08</v>
+        <v>515.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.449999999999932</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1731701200.2859054</t>
-        </is>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1731701200.3746426</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701200.2859054.png</t>
+          <t>1731877207.9070091</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701200.3746426.png</t>
+          <t>1731877213.720213</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/ROSN1731877207.9070091.png</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>3003.2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3001.7</v>
+          <t>./test_images/ROSN1731877213.720213.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K15" t="n">
-        <v>1.5</v>
+        <v>513</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05</v>
+        <v>512.95</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.04999999999995453</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1731701200.6629002</t>
-        </is>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1731701200.830453</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701200.6629002.png</t>
+          <t>1731877215.8131633</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701200.830453.png</t>
+          <t>1731877224.190386</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>./test_images/ROSN1731877215.8131633.png</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>3003.35</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3001.05</v>
+          <t>./test_images/ROSN1731877224.190386.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K16" t="n">
-        <v>2.299999999999727</v>
+        <v>511.15</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08</v>
+        <v>506.25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-4.899999999999977</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1731701201.0717778</t>
-        </is>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1731701202.4292345</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701201.0717778.png</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731701202.4292345.png</t>
-        </is>
-      </c>
+          <t>1731877224.41013</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>3000.25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2996.3</v>
+          <t>./test_images/ROSN1731877224.41013.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K17" t="n">
-        <v>-3.949999999999818</v>
+        <v>506.8</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.13</v>
+        <v>506.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731877224.5388126</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1731877226.7672112</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731877224.5388126.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731877226.7672112.png</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>233.13</v>
+      </c>
+      <c r="L18" t="n">
+        <v>232.69</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731877234.3461165</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1731877237.9351273</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731877234.3461165.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731877237.9351273.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>233.09</v>
+      </c>
+      <c r="L19" t="n">
+        <v>233</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.09000000000000341</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731877238.4202406</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1731877246.1163845</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731877238.4202406.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>./test_images/MOEX1731877246.1163845.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>232.64</v>
+      </c>
+      <c r="L20" t="n">
+        <v>229.98</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-2.659999999999997</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-1.14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731877246.724586</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1731877251.0463326</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731877246.724586.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731877251.0463326.png</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1048.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1045.4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731877253.9290955</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731877255.5350568</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731877253.9290955.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731877255.5350568.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1043.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1042.6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.6000000000001364</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731877266.083494</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731877266.083494.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1032.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1030.6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-1.600000000000136</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731877270.9538863</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731877271.022584</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731877270.9538863.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/CNY1731877271.022584.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>11.872</v>
+      </c>
+      <c r="L24" t="n">
+        <v>11.869</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731877271.1050482</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1731877271.2586746</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877271.1050482.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877271.2586746.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>130.24</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4399999999999977</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731877271.508194</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1731877272.6905966</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877271.508194.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877272.6905966.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>129.98</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4200000000000159</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731877272.7605357</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1731877276.6865976</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877272.7605357.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877276.6865976.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>129.44</v>
+      </c>
+      <c r="L27" t="n">
+        <v>129.58</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.1400000000000148</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731877278.9397116</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731877279.5263143</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877278.9397116.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877279.5263143.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>129.48</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.2800000000000011</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731877282.4809654</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731877282.960953</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877282.4809654.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877282.960953.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>129.48</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731877283.4394972</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731877285.2863889</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877283.4394972.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877285.2863889.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>129.92</v>
+      </c>
+      <c r="L30" t="n">
+        <v>129.66</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.2599999999999909</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731877285.665306</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1731877293.9130113</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877285.665306.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731877293.9130113.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>129.28</v>
+      </c>
+      <c r="L31" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731877296.0281703</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731877297.703468</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731877296.0281703.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731877297.703468.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>165.88</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5200000000000102</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731877302.08221</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1731877304.080857</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731877302.08221.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731877304.080857.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>166.7</v>
+      </c>
+      <c r="L33" t="n">
+        <v>166.54</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731877308.304165</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1731877310.4643745</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731877308.304165.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731877310.4643745.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>166.28</v>
+      </c>
+      <c r="L34" t="n">
+        <v>166.34</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731877312.1219432</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731877314.822943</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731877312.1219432.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731877314.822943.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>165.66</v>
+      </c>
+      <c r="L35" t="n">
+        <v>165.2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.460000000000008</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731877314.8948786</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731877319.4772234</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731877314.8948786.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731877319.4772234.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>165.04</v>
+      </c>
+      <c r="L36" t="n">
+        <v>164.72</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731877332.5055878</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731877332.7175877</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731877332.5055878.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731877332.7175877.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>50.795</v>
+      </c>
+      <c r="L37" t="n">
+        <v>50.92</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731877332.7904885</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731877335.2125967</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731877332.7904885.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731877335.2125967.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="L38" t="n">
+        <v>50.815</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.1649999999999991</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731877340.1672251</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731877340.1672251.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>50.725</v>
+      </c>
+      <c r="L39" t="n">
+        <v>50.57</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.1550000000000011</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731877343.0928724</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1731877343.436428</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731877343.0928724.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731877343.436428.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1412.4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1418.2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5.799999999999955</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731877352.1585617</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1731877354.3762543</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731877352.1585617.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731877354.3762543.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1418</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1419</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731877359.5724247</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1731877365.3523777</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731877359.5724247.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731877365.3523777.png</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1416</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1412.8</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-3.200000000000045</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731877367.90775</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1731877369.222027</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731877367.90775.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731877369.222027.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>60.87</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.3300000000000054</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731877373.766988</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731877376.4882314</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731877373.766988.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731877376.4882314.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>61.29</v>
+      </c>
+      <c r="L44" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731877381.621678</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731877383.0085962</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731877381.621678.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731877383.0085962.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>61.35</v>
+      </c>
+      <c r="L45" t="n">
+        <v>61.17</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.1799999999999997</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731877383.4006958</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1731877392.0840716</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731877383.4006958.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731877392.0840716.png</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="L46" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.3900000000000006</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731877392.534082</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1731877394.2347717</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731877392.534082.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731877394.2347717.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>58.93</v>
+      </c>
+      <c r="L47" t="n">
+        <v>58.81</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1199999999999974</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731877397.721465</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731877403.2873764</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731877397.721465.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731877403.2873764.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>58.35</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.1499999999999986</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1731877407.171412</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1731877407.5113873</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731877407.171412.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731877407.5113873.png</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>58.28</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1731877410.177206</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731877410.177206.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>57.85</v>
+      </c>
+      <c r="L50" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.6499999999999986</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1731877421.2360642</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1731877421.4362342</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877421.2360642.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877421.4362342.png</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>145.16</v>
+      </c>
+      <c r="L51" t="n">
+        <v>145.14</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1731877421.4788082</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1731877421.6756225</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877421.4788082.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877421.6756225.png</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>145.14</v>
+      </c>
+      <c r="L52" t="n">
+        <v>144.98</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1731877421.8095105</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1731877422.3734674</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877421.8095105.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877422.3734674.png</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>144.88</v>
+      </c>
+      <c r="L53" t="n">
+        <v>145.14</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.2599999999999909</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1731877422.3889506</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1731877422.5324376</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877422.3889506.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877422.5324376.png</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>145.14</v>
+      </c>
+      <c r="L54" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.160000000000025</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1731877427.751501</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1731877429.751717</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877427.751501.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877429.751717.png</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="L55" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1731877430.9083438</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1731877434.7125041</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877430.9083438.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877434.7125041.png</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="L56" t="n">
+        <v>144.06</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.3400000000000034</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1731877436.9780416</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731877436.9780416.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>143.66</v>
+      </c>
+      <c r="L57" t="n">
+        <v>142.98</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.6800000000000068</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1731877442.5310144</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1731877445.9423368</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877442.5310144.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877445.9423368.png</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>21.475</v>
+      </c>
+      <c r="L58" t="n">
+        <v>21.398</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.07700000000000173</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1731877449.3134868</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1731877454.6136136</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877449.3134868.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877454.6136136.png</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>21.285</v>
+      </c>
+      <c r="L59" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.08500000000000085</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1731877456.7899327</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1731877464.5093687</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877456.7899327.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877464.5093687.png</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>21.142</v>
+      </c>
+      <c r="L60" t="n">
+        <v>20.841</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.3009999999999984</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-1.42</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1731877464.982854</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>./test_images/AFKS1731877464.982854.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>20.859</v>
+      </c>
+      <c r="L61" t="n">
+        <v>20.831</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.02800000000000225</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1731877474.4533737</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1731877484.6392453</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877474.4533737.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877484.6392453.png</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>681.55</v>
+      </c>
+      <c r="L62" t="n">
+        <v>678.5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-3.049999999999955</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1731877485.102651</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1731877485.2122037</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877485.102651.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877485.2122037.png</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>678.45</v>
+      </c>
+      <c r="L63" t="n">
+        <v>678.7</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1731877485.2281613</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1731877485.4027703</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877485.2281613.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877485.4027703.png</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>678.7</v>
+      </c>
+      <c r="L64" t="n">
+        <v>678.4</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.3000000000000682</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1731877485.4184802</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1731877485.7801347</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877485.4184802.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877485.7801347.png</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>678.4</v>
+      </c>
+      <c r="L65" t="n">
+        <v>678.55</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.1499999999999773</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1731877485.7966247</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1731877485.9880862</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877485.7966247.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877485.9880862.png</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>678.55</v>
+      </c>
+      <c r="L66" t="n">
+        <v>677.5</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.049999999999955</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1731877486.004732</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1731877486.5305595</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877486.004732.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877486.5305595.png</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>677.5</v>
+      </c>
+      <c r="L67" t="n">
+        <v>678.5</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1731877487.849451</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>./test_images/SIBN1731877487.849451.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>678.75</v>
+      </c>
+      <c r="L68" t="n">
+        <v>679.2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.4500000000000455</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1731877488.735094</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731877488.735094.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>379.23</v>
+      </c>
+      <c r="L69" t="n">
+        <v>378.22</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.009999999999991</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1731877490.2544873</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1731877490.646536</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731877490.2544873.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731877490.646536.png</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0994</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.09976</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0003599999999999992</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1731877492.3015387</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1731877498.2026575</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731877492.3015387.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731877498.2026575.png</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0.09998000000000001</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.10016</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.0001799999999999857</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1731877498.926316</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1731877504.1828556</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731877498.926316.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731877504.1828556.png</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0.10038</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.10058</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.0002000000000000057</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1731877508.0149002</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731877508.0149002.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0.09960000000000001</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.09927999999999999</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.0003200000000000147</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1731877517.9715054</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1731877519.9925923</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877517.9715054.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877519.9925923.png</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0.6028</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.6042000000000001</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.001400000000000068</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1731877523.7683496</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1731877525.8848035</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877523.7683496.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877525.8848035.png</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0.6038</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.6043000000000001</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.000500000000000056</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1731877525.9275749</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1731877526.940944</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877525.9275749.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877526.940944.png</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0.6044</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.6036</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0008000000000000229</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1731877526.9888492</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1731877527.2980468</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877526.9888492.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877527.2980468.png</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0.6032000000000001</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.0007999999999999119</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1731877527.436346</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1731877527.5500448</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877527.436346.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877527.5500448.png</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0.6039</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.6044</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.000500000000000056</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1731877527.8099935</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1731877529.2542748</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877527.8099935.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877529.2542748.png</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.6048</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.000199999999999978</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1731877533.668955</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>./test_images/HYDR1731877533.668955.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0.6023000000000001</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-0.001000000000000112</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1731701203.2482963</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731701203.2482963.png</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1731877538.7728705</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1731877540.1303205</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877538.7728705.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877540.1303205.png</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>3036.2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3036.45</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1731877540.5096574</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1731877540.6192117</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877540.5096574.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877540.6192117.png</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>3034.9</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3033.35</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-1.550000000000182</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1731877541.6984053</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1731877542.6043172</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877541.6984053.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877542.6043172.png</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>3028.25</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3031.1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2.849999999999909</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1731877543.664435</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1731877544.4392776</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877543.664435.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877544.4392776.png</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>3026</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3027.9</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1.900000000000091</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1731877544.4880989</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1731877545.8872533</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877544.4880989.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877545.8872533.png</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>3030.65</v>
+      </c>
+      <c r="L85" t="n">
+        <v>3031.1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.4499999999998181</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1731877546.0948257</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1731877546.912195</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877546.0948257.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877546.912195.png</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>3029</v>
+      </c>
+      <c r="L86" t="n">
+        <v>3026.9</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-2.099999999999909</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1731877547.835592</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1731877548.5040567</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877547.835592.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877548.5040567.png</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>3017.25</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3023.45</v>
+      </c>
+      <c r="M87" t="n">
+        <v>6.199999999999818</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1731877548.9465065</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1731877549.905405</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877548.9465065.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877549.905405.png</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>3015.9</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3019.9</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1731877551.1066208</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1731877553.040408</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877551.1066208.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877553.040408.png</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>3022.15</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3024.65</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1731877554.2071595</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1731877557.4925172</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877554.2071595.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877557.4925172.png</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>3019.95</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3005.75</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-14.19999999999982</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1731877557.6036966</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1731877558.1887672</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877557.6036966.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877558.1887672.png</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>3006.35</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3006.4</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.0500000000001819</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1731877558.241497</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1731877559.4754355</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877558.241497.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877559.4754355.png</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>3004.3</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3001.95</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-2.350000000000364</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1731877559.5677629</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1731877559.6787522</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877559.5677629.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877559.6787522.png</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>3003.2</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3001.7</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1731877560.0159</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1731877560.215226</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877560.0159.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877560.215226.png</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>3003.35</v>
+      </c>
+      <c r="L94" t="n">
+        <v>3001.05</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2.299999999999727</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1731877560.497742</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1731877562.096701</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877560.497742.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877562.096701.png</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>3000.25</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2996.3</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-3.949999999999818</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1731877563.1577315</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731877563.1577315.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>2996.95</v>
       </c>
-      <c r="J18" t="n">
-        <v>2996.95</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
+      <c r="L96" t="n">
+        <v>2996.05</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8999999999996362</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1731877576.6261919</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1731877578.9402263</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731877576.6261919.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731877578.9402263.png</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="L97" t="n">
+        <v>34.935</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.3250000000000028</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1731877578.9561694</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1731877579.0553064</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731877578.9561694.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731877579.0553064.png</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>34.935</v>
+      </c>
+      <c r="L98" t="n">
+        <v>34.74</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.1950000000000003</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1731877579.9759605</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1731877586.19039</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731877579.9759605.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731877586.19039.png</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>34.545</v>
+      </c>
+      <c r="L99" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-0.105000000000004</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +6076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1417,16 +6123,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8.650000000000546</v>
+        <v>-7.750000000000909</v>
       </c>
       <c r="C2" t="n">
         <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5406250000000341</v>
+        <v>-0.4843750000000568</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.28</v>
+        <v>-0.25</v>
       </c>
       <c r="F2" t="n">
         <v>-0.02</v>
@@ -1435,20 +6141,460 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1800000000000352</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.02571428571429075</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>SIBN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.1071428571428571</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9800000000000182</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1400000000000026</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>HYDR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.003199999999999981</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0004571428571428544</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.03199999999999932</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AFKS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2809999999999953</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.07024999999999881</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.6999999999999957</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.1749999999999989</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.000340000000000007</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-8.500000000000174e-05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.149999999999977</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2874999999999943</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1100000000000065</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.02750000000000163</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4149999999999991</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1383333333333331</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>MOEX</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-2.129999999999995</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.7099999999999985</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.9100000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7999999999997272</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2666666666665757</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.06999999999999998</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.134999999999998</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.04499999999999934</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.599999999999909</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.19999999999997</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2500000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.100000000000023</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1.009999999999991</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.009999999999991</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
